--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/Enex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE381045-904A-4F91-BFC0-FB8A49F3C002}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90163921-E23C-4202-AD8F-47151E85258C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="pxq" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pxq!$A$1:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pxq!$A$1:$C$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -525,7 +525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AB6F38-7EE6-4A0A-8B29-08E1CB3E95FE}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -790,11 +792,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32" xr:uid="{F2AB6F38-7EE6-4A0A-8B29-08E1CB3E95FE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
-      <sortCondition ref="A1:A32"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:C32" xr:uid="{F2AB6F38-7EE6-4A0A-8B29-08E1CB3E95FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90163921-E23C-4202-AD8F-47151E85258C}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7C99DDB-443D-4057-9BB5-CA1927E23EF9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -144,6 +144,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -189,6 +192,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,6 +208,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AB6F38-7EE6-4A0A-8B29-08E1CB3E95FE}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -535,7 +543,7 @@
     <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -543,124 +551,125 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B14">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -668,7 +677,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -676,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -684,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -692,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -700,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -708,7 +717,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -716,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -724,7 +733,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -732,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -740,7 +749,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -748,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -756,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -764,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -772,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -780,7 +789,7 @@
         <v>22</v>
       </c>
       <c r="B31">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -788,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7C99DDB-443D-4057-9BB5-CA1927E23EF9}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E8C923-1321-447A-B6DC-B597A5EA28D6}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -192,7 +192,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,10 +208,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,7 +530,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -556,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -564,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -572,7 +568,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -580,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -588,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -596,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -605,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -613,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -621,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -629,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -637,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -645,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -653,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -661,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -669,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -677,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -685,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -693,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -701,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -709,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -717,7 +713,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -725,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -733,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -741,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -749,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -757,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -765,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -773,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -781,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -789,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B31">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -797,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E8C923-1321-447A-B6DC-B597A5EA28D6}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24ECD1D4-4669-48C9-B93E-ED79FB916D70}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -552,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -568,7 +568,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -584,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -592,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -601,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -665,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -697,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -713,7 +713,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -721,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B31">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24ECD1D4-4669-48C9-B93E-ED79FB916D70}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE685601-D107-4FE9-B3E3-DB1E0C25844B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -552,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -568,7 +568,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -584,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -592,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -601,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -665,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -697,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -713,7 +713,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -721,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B31">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE685601-D107-4FE9-B3E3-DB1E0C25844B}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B514FF3-EC4D-4DD2-9F61-6DCC704EDA2C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -552,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -568,7 +568,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -584,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -592,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -601,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -665,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -697,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -713,7 +713,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -721,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B31">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B514FF3-EC4D-4DD2-9F61-6DCC704EDA2C}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44939B3E-8D27-4BCA-B197-01D4885CB19D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -552,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -568,7 +568,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -584,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -592,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -601,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -665,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -697,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -713,7 +713,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -721,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B31">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44939B3E-8D27-4BCA-B197-01D4885CB19D}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B3B41B7-3D32-4F82-AEAD-22797A10F7B4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -552,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -568,7 +568,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -584,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -592,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -601,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -665,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -697,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -713,7 +713,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -721,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B3B41B7-3D32-4F82-AEAD-22797A10F7B4}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7F9E89-706E-404A-8B59-6494D2EA3CCA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -552,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -568,7 +568,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -584,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -592,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -601,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -665,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -697,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -713,7 +713,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -721,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7F9E89-706E-404A-8B59-6494D2EA3CCA}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DBFCD3F-3F88-453C-8BB9-17E3FF0BA697}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -552,7 +552,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -568,7 +568,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -584,7 +584,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -592,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -601,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -625,7 +625,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -665,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -697,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -713,7 +713,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -721,7 +721,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DBFCD3F-3F88-453C-8BB9-17E3FF0BA697}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B13E2F54-9102-4A11-A4DA-4FBAE437BE41}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
   <sheets>
     <sheet name="pxq" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>San Vicente</t>
-  </si>
-  <si>
-    <t>San Fernando</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Chillán</t>
   </si>
@@ -53,91 +47,49 @@
     <t>Talca</t>
   </si>
   <si>
-    <t>Romeral</t>
-  </si>
-  <si>
-    <t>Linares</t>
-  </si>
-  <si>
-    <t>Osorno</t>
-  </si>
-  <si>
-    <t>Arica</t>
-  </si>
-  <si>
-    <t>Lautaro</t>
-  </si>
-  <si>
-    <t>Ovalle</t>
-  </si>
-  <si>
     <t>Coquimbo</t>
   </si>
   <si>
     <t>Valparaiso</t>
   </si>
   <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
     <t>Santiago</t>
   </si>
   <si>
-    <t>Mejillones</t>
-  </si>
-  <si>
-    <t>Iquique</t>
-  </si>
-  <si>
-    <t>Calama</t>
-  </si>
-  <si>
     <t>Antofagasta</t>
   </si>
   <si>
-    <t>Copiapó</t>
-  </si>
-  <si>
-    <t>Caldera</t>
-  </si>
-  <si>
     <t>Puerto Montt</t>
   </si>
   <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>Valdivia</t>
-  </si>
-  <si>
-    <t>Pichirropulli</t>
-  </si>
-  <si>
     <t>Los Ángeles</t>
   </si>
   <si>
     <t>Concepción</t>
   </si>
   <si>
-    <t>Punta Arenas</t>
-  </si>
-  <si>
-    <t>Puerto Williams</t>
-  </si>
-  <si>
-    <t>Puerto Natales</t>
-  </si>
-  <si>
     <t>pxq_externo</t>
   </si>
   <si>
     <t>ciudad</t>
   </si>
   <si>
-    <t>Coronel</t>
-  </si>
-  <si>
-    <t>Puerto Aysen</t>
+    <t>Rancagua</t>
+  </si>
+  <si>
+    <t>Curico</t>
+  </si>
+  <si>
+    <t>Temuco</t>
+  </si>
+  <si>
+    <t>Chiloe</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
+    <t>Curanilahue</t>
   </si>
 </sst>
 </file>
@@ -164,12 +116,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -193,6 +151,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +492,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A16" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -541,260 +503,177 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
+      <c r="A2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="B6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B15">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
+      <c r="A16" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>1.5</v>
-      </c>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C32" xr:uid="{F2AB6F38-7EE6-4A0A-8B29-08E1CB3E95FE}"/>

--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B13E2F54-9102-4A11-A4DA-4FBAE437BE41}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1216F980-3669-4AB0-BA13-FD71D41CE527}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
   <sheets>
     <sheet name="pxq" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pxq!$A$1:$C$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pxq!$A$1:$B$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AB6F38-7EE6-4A0A-8B29-08E1CB3E95FE}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A2:A16"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -501,7 +501,7 @@
     <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -509,7 +509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -517,7 +517,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -525,7 +525,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -533,7 +533,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -541,7 +541,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -549,16 +549,16 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -566,7 +566,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -574,7 +574,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -582,7 +582,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -590,7 +590,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -598,7 +598,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -606,7 +606,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -614,7 +614,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -622,7 +622,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="A32" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C32" xr:uid="{F2AB6F38-7EE6-4A0A-8B29-08E1CB3E95FE}"/>
+  <autoFilter ref="A1:B32" xr:uid="{F2AB6F38-7EE6-4A0A-8B29-08E1CB3E95FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1216F980-3669-4AB0-BA13-FD71D41CE527}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA382E7D-3506-4B0D-BBE8-6A4FB7A1C9E2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -77,19 +77,19 @@
     <t>Rancagua</t>
   </si>
   <si>
-    <t>Curico</t>
-  </si>
-  <si>
     <t>Temuco</t>
   </si>
   <si>
-    <t>Chiloe</t>
-  </si>
-  <si>
     <t>La Serena</t>
   </si>
   <si>
     <t>Curanilahue</t>
+  </si>
+  <si>
+    <t>Chiloé</t>
+  </si>
+  <si>
+    <t>Curicó</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>2.2000000000000002</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>2.2000000000000002</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2.2000000000000002</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2.2000000000000002</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>2.2000000000000002</v>

--- a/data/costos_externos.xlsx
+++ b/data/costos_externos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA382E7D-3506-4B0D-BBE8-6A4FB7A1C9E2}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{79B74410-59F2-4A55-AFEB-2DFBFB25D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6983D750-1628-4874-A1B5-7B30C24380BA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A4C153B-6B5E-48EC-BCCE-23730392C0B6}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Coquimbo</t>
   </si>
   <si>
-    <t>Valparaiso</t>
-  </si>
-  <si>
     <t>Santiago</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Curicó</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
   </si>
 </sst>
 </file>
@@ -170,6 +170,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,7 +496,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -503,15 +507,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>2.2000000000000002</v>
@@ -527,7 +531,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2.2000000000000002</v>
@@ -543,7 +547,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2.2000000000000002</v>
@@ -551,7 +555,7 @@
     </row>
     <row r="7" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2.2000000000000002</v>
@@ -560,7 +564,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>2.2000000000000002</v>
@@ -568,7 +572,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2.2000000000000002</v>
@@ -576,7 +580,7 @@
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>2.2000000000000002</v>
@@ -584,7 +588,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>2.2000000000000002</v>
@@ -592,7 +596,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2.2000000000000002</v>
@@ -600,7 +604,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2.2000000000000002</v>
@@ -608,7 +612,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2.2000000000000002</v>
@@ -616,7 +620,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2.2000000000000002</v>
